--- a/PyPSA_project/output/archive/local_euro_00_storage_4D_eta_0.05.xlsx
+++ b/PyPSA_project/output/archive/local_euro_00_storage_4D_eta_0.05.xlsx
@@ -737,7 +737,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DH4"/>
+  <dimension ref="A1:DH2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1083,1013 +1083,337 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.35636282445142E-15</v>
+        <v>7.152356816299374E-12</v>
       </c>
       <c r="C2">
-        <v>3.067276095847046E-15</v>
+        <v>1.112527805262639E-11</v>
       </c>
       <c r="D2">
-        <v>10601.99999999999</v>
+        <v>8458.99999999998</v>
       </c>
       <c r="E2">
-        <v>2.160412588409269E-15</v>
+        <v>6.044606259446436E-12</v>
       </c>
       <c r="F2">
-        <v>3.062085602837619E-15</v>
+        <v>1.151332951936199E-11</v>
       </c>
       <c r="G2">
-        <v>2057</v>
+        <v>1870.500000000028</v>
       </c>
       <c r="H2">
-        <v>3.196263962655343E-15</v>
+        <v>1.024923720655892E-11</v>
       </c>
       <c r="I2">
-        <v>1.404506639193679E-15</v>
+        <v>3.222938817657585E-12</v>
       </c>
       <c r="J2">
-        <v>2.607097874232328E-15</v>
+        <v>1.025672050823982E-11</v>
       </c>
       <c r="K2">
-        <v>13815.5</v>
+        <v>11303.99999999997</v>
       </c>
       <c r="L2">
-        <v>2.122373858346718E-15</v>
+        <v>7.979333249847375E-12</v>
       </c>
       <c r="M2">
-        <v>7.944558119662514E-16</v>
+        <v>2.604346929725712E-12</v>
       </c>
       <c r="N2">
-        <v>3.167086357106005E-15</v>
+        <v>1.052747186815729E-11</v>
       </c>
       <c r="O2">
-        <v>6533.000000000001</v>
+        <v>5994.500000000013</v>
       </c>
       <c r="P2">
-        <v>2.332569679419126E-15</v>
+        <v>7.436271568410808E-12</v>
       </c>
       <c r="Q2">
-        <v>2.776401611748556E-15</v>
+        <v>1.093200922614332E-11</v>
       </c>
       <c r="R2">
-        <v>7549.500000000001</v>
+        <v>6953.499999999969</v>
       </c>
       <c r="S2">
-        <v>2.514884220858698E-15</v>
+        <v>6.993658638411042E-12</v>
       </c>
       <c r="T2">
-        <v>2.909497471124033E-15</v>
+        <v>9.731777234429771E-12</v>
       </c>
       <c r="U2">
-        <v>9683.999999999996</v>
+        <v>8125.500000000327</v>
       </c>
       <c r="V2">
-        <v>2.035183113429615E-15</v>
+        <v>5.399308601481219E-12</v>
       </c>
       <c r="W2">
-        <v>1.186276943907345E-15</v>
+        <v>3.707371785870793E-12</v>
       </c>
       <c r="X2">
-        <v>2.180380607783026E-15</v>
+        <v>5.104276241946788E-12</v>
       </c>
       <c r="Y2">
-        <v>70836.99999999999</v>
+        <v>54328.49999999975</v>
       </c>
       <c r="Z2">
-        <v>3.36445616317597E-15</v>
+        <v>8.897754732621175E-12</v>
       </c>
       <c r="AA2">
-        <v>1.153613930347059E-15</v>
+        <v>2.913341663201235E-12</v>
       </c>
       <c r="AB2">
-        <v>2.325224424544545E-15</v>
+        <v>8.836614883557846E-12</v>
       </c>
       <c r="AC2">
-        <v>5863.999999999989</v>
+        <v>5252.499999999971</v>
       </c>
       <c r="AD2">
-        <v>2.849834657023088E-15</v>
+        <v>9.088636752306684E-12</v>
       </c>
       <c r="AE2">
-        <v>1.208083013884356E-15</v>
+        <v>3.91504194746601E-12</v>
       </c>
       <c r="AF2">
-        <v>1.888860770285625E-15</v>
+        <v>6.874000153423838E-12</v>
       </c>
       <c r="AG2">
-        <v>1383</v>
+        <v>1201.999999999975</v>
       </c>
       <c r="AH2">
-        <v>2.071959480984768E-15</v>
+        <v>5.868438420750683E-12</v>
       </c>
       <c r="AI2">
-        <v>1.264250679034066E-15</v>
+        <v>3.667976266463174E-12</v>
       </c>
       <c r="AJ2">
-        <v>2.072739147599766E-15</v>
+        <v>6.315883247998589E-12</v>
       </c>
       <c r="AK2">
-        <v>39352.50000000001</v>
+        <v>31720.99999999996</v>
       </c>
       <c r="AL2">
-        <v>1.94544911969909E-15</v>
+        <v>3.878201308946769E-12</v>
       </c>
       <c r="AM2">
-        <v>1.108631678839833E-15</v>
+        <v>2.991088219800102E-12</v>
       </c>
       <c r="AN2">
-        <v>1.657770129280797E-15</v>
+        <v>6.472337151843816E-12</v>
       </c>
       <c r="AO2">
-        <v>13661</v>
+        <v>12313.49999999997</v>
       </c>
       <c r="AP2">
-        <v>1.140804341712739E-14</v>
+        <v>4.668651144645221E-12</v>
       </c>
       <c r="AQ2">
-        <v>1.263312820652273E-15</v>
+        <v>3.385687175685639E-12</v>
       </c>
       <c r="AR2">
-        <v>1.823501871366169E-15</v>
+        <v>5.390537249148468E-12</v>
       </c>
       <c r="AS2">
-        <v>88464.50000000004</v>
+        <v>75590.49999999999</v>
       </c>
       <c r="AT2">
-        <v>2.032427951402568E-15</v>
+        <v>5.206291380593023E-12</v>
       </c>
       <c r="AU2">
-        <v>1.027184482279163E-15</v>
+        <v>2.468932511880633E-12</v>
       </c>
       <c r="AV2">
-        <v>2.316057764722676E-15</v>
+        <v>5.822082028054178E-12</v>
       </c>
       <c r="AW2">
-        <v>54506.50000000001</v>
+        <v>46935.99999999994</v>
       </c>
       <c r="AX2">
-        <v>2.343372200975598E-15</v>
+        <v>9.133103953348959E-12</v>
       </c>
       <c r="AY2">
-        <v>1.256521280046758E-15</v>
+        <v>4.163566275539981E-12</v>
       </c>
       <c r="AZ2">
-        <v>3.379136388853532E-15</v>
+        <v>1.210458091285597E-11</v>
       </c>
       <c r="BA2">
-        <v>7626.999999999999</v>
+        <v>6469.499999999975</v>
       </c>
       <c r="BB2">
-        <v>2.267613386651975E-15</v>
+        <v>8.284154841585294E-12</v>
       </c>
       <c r="BC2">
-        <v>1.121527216994666E-15</v>
+        <v>2.164498175463846E-12</v>
       </c>
       <c r="BD2">
-        <v>3.185455882057413E-15</v>
+        <v>1.150632530700536E-11</v>
       </c>
       <c r="BE2">
-        <v>2826.5</v>
+        <v>2452.500000000122</v>
       </c>
       <c r="BF2">
-        <v>2.466785243991957E-15</v>
+        <v>8.134732697743927E-12</v>
       </c>
       <c r="BG2">
-        <v>3.009166171012943E-15</v>
+        <v>7.383994251910821E-12</v>
       </c>
       <c r="BH2">
-        <v>5692</v>
+        <v>5031.999999999922</v>
       </c>
       <c r="BI2">
-        <v>2.475932742065076E-15</v>
+        <v>8.737098892571442E-12</v>
       </c>
       <c r="BJ2">
-        <v>1.200565836080355E-15</v>
+        <v>4.438533589134097E-12</v>
       </c>
       <c r="BK2">
-        <v>2.590798128138286E-15</v>
+        <v>8.582279414301334E-12</v>
       </c>
       <c r="BL2">
-        <v>4595.5</v>
+        <v>3864.999999999969</v>
       </c>
       <c r="BM2">
-        <v>2.551865739791092E-15</v>
+        <v>7.045786117474305E-12</v>
       </c>
       <c r="BN2">
-        <v>1.226087531868011E-15</v>
+        <v>2.949353137306716E-12</v>
       </c>
       <c r="BO2">
-        <v>2.74824271594927E-15</v>
+        <v>6.944653686684653E-12</v>
       </c>
       <c r="BP2">
-        <v>49949.49999999998</v>
+        <v>34857.49999999998</v>
       </c>
       <c r="BQ2">
-        <v>3.165256727068909E-15</v>
+        <v>8.562374240864249E-12</v>
       </c>
       <c r="BR2">
-        <v>1.316881421047718E-15</v>
+        <v>3.45820303015051E-12</v>
       </c>
       <c r="BS2">
-        <v>2.38373335218357E-15</v>
+        <v>6.97513006912617E-12</v>
       </c>
       <c r="BT2">
-        <v>1659</v>
+        <v>1441.499999999972</v>
       </c>
       <c r="BU2">
-        <v>2.669300531285453E-15</v>
+        <v>5.482783248003508E-12</v>
       </c>
       <c r="BV2">
-        <v>2.152859988732957E-15</v>
+        <v>5.60103998661926E-12</v>
       </c>
       <c r="BW2">
-        <v>1021</v>
+        <v>596.9999999999733</v>
       </c>
       <c r="BX2">
-        <v>3.558281742665677E-15</v>
+        <v>8.121954129772796E-12</v>
       </c>
       <c r="BY2">
-        <v>1.339316883185313E-15</v>
+        <v>4.098063823656504E-12</v>
       </c>
       <c r="BZ2">
-        <v>2.392240824450223E-15</v>
+        <v>7.542660867258771E-12</v>
       </c>
       <c r="CA2">
-        <v>1174.5</v>
+        <v>1001.499999999973</v>
       </c>
       <c r="CB2">
-        <v>3.080949584835876E-15</v>
+        <v>1.00240630336599E-11</v>
       </c>
       <c r="CC2">
-        <v>1.125802762118043E-15</v>
+        <v>2.92668575904505E-12</v>
       </c>
       <c r="CD2">
-        <v>2.55654794694819E-15</v>
+        <v>9.734449938062679E-12</v>
       </c>
       <c r="CE2">
-        <v>16875</v>
+        <v>14764.99999999993</v>
       </c>
       <c r="CF2">
-        <v>2.040904273401215E-15</v>
+        <v>5.747856632073634E-12</v>
       </c>
       <c r="CG2">
-        <v>1.170570525724746E-15</v>
+        <v>3.851811732386008E-12</v>
       </c>
       <c r="CH2">
-        <v>2.018218527416125E-15</v>
+        <v>4.886488495519196E-12</v>
       </c>
       <c r="CI2">
-        <v>20690.5</v>
+        <v>18979.99999999997</v>
       </c>
       <c r="CJ2">
-        <v>1.964426799210581E-15</v>
+        <v>5.508539247820706E-12</v>
       </c>
       <c r="CK2">
-        <v>1.308266612249583E-15</v>
+        <v>4.032070400914129E-12</v>
       </c>
       <c r="CL2">
-        <v>2.559530096957758E-15</v>
+        <v>6.09695177103719E-12</v>
       </c>
       <c r="CM2">
-        <v>22003.00000000002</v>
+        <v>17991.99999999998</v>
       </c>
       <c r="CN2">
-        <v>2.565387205824021E-15</v>
+        <v>4.39248561865999E-12</v>
       </c>
       <c r="CO2">
-        <v>1.068461332356245E-15</v>
+        <v>2.871532206047684E-12</v>
       </c>
       <c r="CP2">
-        <v>3.409096702050455E-15</v>
+        <v>1.290479411686743E-11</v>
       </c>
       <c r="CQ2">
-        <v>8228.500000000004</v>
+        <v>7031.499999999968</v>
       </c>
       <c r="CR2">
-        <v>2.412453437370025E-15</v>
+        <v>5.475215325771591E-12</v>
       </c>
       <c r="CS2">
-        <v>1.098844544193963E-15</v>
+        <v>3.973581502255699E-12</v>
       </c>
       <c r="CT2">
-        <v>2.839767927588281E-15</v>
+        <v>6.447775814273522E-12</v>
       </c>
       <c r="CU2">
-        <v>8367.999999999998</v>
+        <v>6940.999999999925</v>
       </c>
       <c r="CV2">
-        <v>2.376590478338804E-15</v>
+        <v>6.752297895257245E-12</v>
       </c>
       <c r="CW2">
-        <v>2.919300346403037E-15</v>
+        <v>9.587895818716896E-12</v>
       </c>
       <c r="CX2">
-        <v>7171.000000000001</v>
+        <v>6465.50000000018</v>
       </c>
       <c r="CY2">
-        <v>1.749583791452684E-15</v>
+        <v>5.170520897088266E-12</v>
       </c>
       <c r="CZ2">
-        <v>1.09967893410076E-15</v>
+        <v>2.716047071423444E-12</v>
       </c>
       <c r="DA2">
-        <v>2.322283375950542E-15</v>
+        <v>7.192062296734312E-12</v>
       </c>
       <c r="DB2">
-        <v>23900</v>
+        <v>21490.49999999987</v>
       </c>
       <c r="DC2">
-        <v>2.094772698284293E-15</v>
+        <v>7.058527683699526E-12</v>
       </c>
       <c r="DD2">
-        <v>2.750958943841811E-15</v>
+        <v>8.51484768841431E-12</v>
       </c>
       <c r="DE2">
-        <v>1815.499999999999</v>
+        <v>1384.999999999785</v>
       </c>
       <c r="DF2">
-        <v>2.34068133538091E-15</v>
+        <v>9.936366275898703E-12</v>
       </c>
       <c r="DG2">
-        <v>2.837589094770533E-15</v>
+        <v>1.083579617419686E-11</v>
       </c>
       <c r="DH2">
-        <v>4126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:112">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>14281.03301533437</v>
-      </c>
-      <c r="C3">
-        <v>7.684033737966553E-19</v>
-      </c>
-      <c r="D3">
-        <v>14523.27947181936</v>
-      </c>
-      <c r="E3">
-        <v>18181.71025953542</v>
-      </c>
-      <c r="F3">
-        <v>7.412765641023834E-19</v>
-      </c>
-      <c r="G3">
-        <v>9903.823234677353</v>
-      </c>
-      <c r="H3">
-        <v>10523.86759404543</v>
-      </c>
-      <c r="I3">
-        <v>3663.106328052551</v>
-      </c>
-      <c r="J3">
-        <v>8.137435669517268E-19</v>
-      </c>
-      <c r="K3">
-        <v>17227.2328576633</v>
-      </c>
-      <c r="L3">
-        <v>20660.41368475412</v>
-      </c>
-      <c r="M3">
-        <v>1890.24953546338</v>
-      </c>
-      <c r="N3">
-        <v>7.160153812042314E-19</v>
-      </c>
-      <c r="O3">
-        <v>11508.93624137257</v>
-      </c>
-      <c r="P3">
-        <v>14787.10874347006</v>
-      </c>
-      <c r="Q3">
-        <v>6.402744373269475E-19</v>
-      </c>
-      <c r="R3">
-        <v>16774.74905206287</v>
-      </c>
-      <c r="S3">
-        <v>13351.54519392652</v>
-      </c>
-      <c r="T3">
-        <v>8.160720293868109E-19</v>
-      </c>
-      <c r="U3">
-        <v>14962.26162289657</v>
-      </c>
-      <c r="V3">
-        <v>10623.42616516691</v>
-      </c>
-      <c r="W3">
-        <v>5256.507208184966</v>
-      </c>
-      <c r="X3">
-        <v>7.512616266664768E-19</v>
-      </c>
-      <c r="Y3">
-        <v>45888.11570353866</v>
-      </c>
-      <c r="Z3">
-        <v>9555.761305161408</v>
-      </c>
-      <c r="AA3">
-        <v>5138.544636814414</v>
-      </c>
-      <c r="AB3">
-        <v>7.284562765661866E-19</v>
-      </c>
-      <c r="AC3">
-        <v>12724.17606298292</v>
-      </c>
-      <c r="AD3">
-        <v>11271.76935580819</v>
-      </c>
-      <c r="AE3">
-        <v>5753.709294229071</v>
-      </c>
-      <c r="AF3">
-        <v>7.016601284982271E-19</v>
-      </c>
-      <c r="AG3">
-        <v>8898.103581247298</v>
-      </c>
-      <c r="AH3">
-        <v>15416.36472669856</v>
-      </c>
-      <c r="AI3">
-        <v>7998.628159133004</v>
-      </c>
-      <c r="AJ3">
-        <v>6.856081837610969E-19</v>
-      </c>
-      <c r="AK3">
-        <v>35410.44731304939</v>
-      </c>
-      <c r="AL3">
-        <v>12309.70169364361</v>
-      </c>
-      <c r="AM3">
-        <v>6197.664666956796</v>
-      </c>
-      <c r="AN3">
-        <v>6.425081908534885E-19</v>
-      </c>
-      <c r="AO3">
-        <v>12742.96849514453</v>
-      </c>
-      <c r="AP3">
-        <v>11011.46712829665</v>
-      </c>
-      <c r="AQ3">
-        <v>5448.790936472553</v>
-      </c>
-      <c r="AR3">
-        <v>7.577825140553905E-19</v>
-      </c>
-      <c r="AS3">
-        <v>68965.03778679202</v>
-      </c>
-      <c r="AT3">
-        <v>10122.52493458471</v>
-      </c>
-      <c r="AU3">
-        <v>5206.41593520715</v>
-      </c>
-      <c r="AV3">
-        <v>7.205299036061032E-19</v>
-      </c>
-      <c r="AW3">
-        <v>40471.50726059343</v>
-      </c>
-      <c r="AX3">
-        <v>17010.060305042</v>
-      </c>
-      <c r="AY3">
-        <v>7052.174140137244</v>
-      </c>
-      <c r="AZ3">
-        <v>7.31635143377759E-19</v>
-      </c>
-      <c r="BA3">
-        <v>12221.86321164963</v>
-      </c>
-      <c r="BB3">
-        <v>17555.88202466044</v>
-      </c>
-      <c r="BC3">
-        <v>8461.456282859801</v>
-      </c>
-      <c r="BD3">
-        <v>7.467211158295921E-19</v>
-      </c>
-      <c r="BE3">
-        <v>10284.1615999663</v>
-      </c>
-      <c r="BF3">
-        <v>15654.10928817573</v>
-      </c>
-      <c r="BG3">
-        <v>7.844240931934212E-19</v>
-      </c>
-      <c r="BH3">
-        <v>11487.88063567859</v>
-      </c>
-      <c r="BI3">
-        <v>12360.86075585413</v>
-      </c>
-      <c r="BJ3">
-        <v>5775.737239588962</v>
-      </c>
-      <c r="BK3">
-        <v>6.974543790089296E-19</v>
-      </c>
-      <c r="BL3">
-        <v>12449.21428077184</v>
-      </c>
-      <c r="BM3">
-        <v>16144.38363388149</v>
-      </c>
-      <c r="BN3">
-        <v>8517.465533940071</v>
-      </c>
-      <c r="BO3">
-        <v>6.827470426514809E-19</v>
-      </c>
-      <c r="BP3">
-        <v>36720.11745405813</v>
-      </c>
-      <c r="BQ3">
-        <v>11448.3382909141</v>
-      </c>
-      <c r="BR3">
-        <v>4287.004841262577</v>
-      </c>
-      <c r="BS3">
-        <v>8.307831466777669E-19</v>
-      </c>
-      <c r="BT3">
-        <v>9526.530889932077</v>
-      </c>
-      <c r="BU3">
-        <v>3692.114278955103</v>
-      </c>
-      <c r="BV3">
-        <v>2.987915326261373E-18</v>
-      </c>
-      <c r="BW3">
-        <v>12141.82295161676</v>
-      </c>
-      <c r="BX3">
-        <v>10225.90310414929</v>
-      </c>
-      <c r="BY3">
-        <v>5138.440399117589</v>
-      </c>
-      <c r="BZ3">
-        <v>8.186990910101421E-19</v>
-      </c>
-      <c r="CA3">
-        <v>8572.873651458514</v>
-      </c>
-      <c r="CB3">
-        <v>9748.261342824086</v>
-      </c>
-      <c r="CC3">
-        <v>5073.608154113571</v>
-      </c>
-      <c r="CD3">
-        <v>8.32881655220945E-19</v>
-      </c>
-      <c r="CE3">
-        <v>18444.66786416754</v>
-      </c>
-      <c r="CF3">
-        <v>11485.51999177992</v>
-      </c>
-      <c r="CG3">
-        <v>5517.465612910394</v>
-      </c>
-      <c r="CH3">
-        <v>6.508303544633622E-19</v>
-      </c>
-      <c r="CI3">
-        <v>20480.09258127533</v>
-      </c>
-      <c r="CJ3">
-        <v>11540.46361963068</v>
-      </c>
-      <c r="CK3">
-        <v>5634.109721041286</v>
-      </c>
-      <c r="CL3">
-        <v>8.72832369296517E-19</v>
-      </c>
-      <c r="CM3">
-        <v>16814.83951007435</v>
-      </c>
-      <c r="CN3">
-        <v>19607.21626843892</v>
-      </c>
-      <c r="CO3">
-        <v>3947.52226908123</v>
-      </c>
-      <c r="CP3">
-        <v>8.564378462023046E-19</v>
-      </c>
-      <c r="CQ3">
-        <v>14538.45666012955</v>
-      </c>
-      <c r="CR3">
-        <v>16820.326032379</v>
-      </c>
-      <c r="CS3">
-        <v>7973.999899269852</v>
-      </c>
-      <c r="CT3">
-        <v>8.279923394368171E-19</v>
-      </c>
-      <c r="CU3">
-        <v>11596.95907077184</v>
-      </c>
-      <c r="CV3">
-        <v>17815.18971888694</v>
-      </c>
-      <c r="CW3">
-        <v>7.162917822988755E-19</v>
-      </c>
-      <c r="CX3">
-        <v>11037.40995761871</v>
-      </c>
-      <c r="CY3">
-        <v>11356.52627008746</v>
-      </c>
-      <c r="CZ3">
-        <v>5567.150388132723</v>
-      </c>
-      <c r="DA3">
-        <v>7.227538655461751E-19</v>
-      </c>
-      <c r="DB3">
-        <v>19092.36347660258</v>
-      </c>
-      <c r="DC3">
-        <v>7547.65651530474</v>
-      </c>
-      <c r="DD3">
-        <v>1.359644509997979E-18</v>
-      </c>
-      <c r="DE3">
-        <v>11627.14903822702</v>
-      </c>
-      <c r="DF3">
-        <v>17507.39771004428</v>
-      </c>
-      <c r="DG3">
-        <v>8.350422837439092E-19</v>
-      </c>
-      <c r="DH3">
-        <v>12006.15397663574</v>
-      </c>
-    </row>
-    <row r="4" spans="1:112">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>4.005154922069529E-18</v>
-      </c>
-      <c r="C4">
-        <v>23956.98706012656</v>
-      </c>
-      <c r="D4">
-        <v>18170.30932873045</v>
-      </c>
-      <c r="E4">
-        <v>4.992124862472873E-18</v>
-      </c>
-      <c r="F4">
-        <v>21697.48425478937</v>
-      </c>
-      <c r="G4">
-        <v>12930.36449275406</v>
-      </c>
-      <c r="H4">
-        <v>2.972398193287048E-18</v>
-      </c>
-      <c r="I4">
-        <v>6.371759194343985E-18</v>
-      </c>
-      <c r="J4">
-        <v>30173.66327708794</v>
-      </c>
-      <c r="K4">
-        <v>23457.94913008183</v>
-      </c>
-      <c r="L4">
-        <v>5.319825068522473E-18</v>
-      </c>
-      <c r="M4">
-        <v>2.696141485988186E-17</v>
-      </c>
-      <c r="N4">
-        <v>19507.60962973776</v>
-      </c>
-      <c r="O4">
-        <v>14116.50281108818</v>
-      </c>
-      <c r="P4">
-        <v>3.906812718050051E-18</v>
-      </c>
-      <c r="Q4">
-        <v>18985.2091779345</v>
-      </c>
-      <c r="R4">
-        <v>21528.83800350251</v>
-      </c>
-      <c r="S4">
-        <v>3.666470170484245E-18</v>
-      </c>
-      <c r="T4">
-        <v>27887.8784034882</v>
-      </c>
-      <c r="U4">
-        <v>18929.67168616741</v>
-      </c>
-      <c r="V4">
-        <v>2.958257675713187E-18</v>
-      </c>
-      <c r="W4">
-        <v>5.164827384038297E-18</v>
-      </c>
-      <c r="X4">
-        <v>26959.28062670471</v>
-      </c>
-      <c r="Y4">
-        <v>42596.42587362351</v>
-      </c>
-      <c r="Z4">
-        <v>2.917505934684619E-18</v>
-      </c>
-      <c r="AA4">
-        <v>5.485414809902541E-18</v>
-      </c>
-      <c r="AB4">
-        <v>26998.90686879963</v>
-      </c>
-      <c r="AC4">
-        <v>18309.40713210864</v>
-      </c>
-      <c r="AD4">
-        <v>3.574814996880537E-18</v>
-      </c>
-      <c r="AE4">
-        <v>6.537378291893584E-18</v>
-      </c>
-      <c r="AF4">
-        <v>16686.15803829158</v>
-      </c>
-      <c r="AG4">
-        <v>13335.52665867264</v>
-      </c>
-      <c r="AH4">
-        <v>4.092843897017317E-18</v>
-      </c>
-      <c r="AI4">
-        <v>9.052043979135402E-18</v>
-      </c>
-      <c r="AJ4">
-        <v>21694.6463092291</v>
-      </c>
-      <c r="AK4">
-        <v>37063.00757531405</v>
-      </c>
-      <c r="AL4">
-        <v>3.592663775214744E-18</v>
-      </c>
-      <c r="AM4">
-        <v>6.608147335180154E-18</v>
-      </c>
-      <c r="AN4">
-        <v>27437.18831742312</v>
-      </c>
-      <c r="AO4">
-        <v>18255.97439745415</v>
-      </c>
-      <c r="AP4">
-        <v>2.977644768868224E-18</v>
-      </c>
-      <c r="AQ4">
-        <v>5.294324296493968E-18</v>
-      </c>
-      <c r="AR4">
-        <v>26642.03603567699</v>
-      </c>
-      <c r="AS4">
-        <v>68037.95444978474</v>
-      </c>
-      <c r="AT4">
-        <v>2.847994185106759E-18</v>
-      </c>
-      <c r="AU4">
-        <v>5.238366888030512E-18</v>
-      </c>
-      <c r="AV4">
-        <v>26209.99669252307</v>
-      </c>
-      <c r="AW4">
-        <v>42900.02441554065</v>
-      </c>
-      <c r="AX4">
-        <v>4.769425561021345E-18</v>
-      </c>
-      <c r="AY4">
-        <v>7.389928916347298E-18</v>
-      </c>
-      <c r="AZ4">
-        <v>21430.19315510723</v>
-      </c>
-      <c r="BA4">
-        <v>15523.35303200587</v>
-      </c>
-      <c r="BB4">
-        <v>4.620223963325274E-18</v>
-      </c>
-      <c r="BC4">
-        <v>9.121510490930723E-18</v>
-      </c>
-      <c r="BD4">
-        <v>21375.46719680735</v>
-      </c>
-      <c r="BE4">
-        <v>13751.7913827083</v>
-      </c>
-      <c r="BF4">
-        <v>4.291084517343781E-18</v>
-      </c>
-      <c r="BG4">
-        <v>23994.66422465222</v>
-      </c>
-      <c r="BH4">
-        <v>14812.84730607867</v>
-      </c>
-      <c r="BI4">
-        <v>3.621813964565402E-18</v>
-      </c>
-      <c r="BJ4">
-        <v>6.308815637482752E-18</v>
-      </c>
-      <c r="BK4">
-        <v>23991.18830397092</v>
-      </c>
-      <c r="BL4">
-        <v>17926.4683311177</v>
-      </c>
-      <c r="BM4">
-        <v>4.647598875925782E-18</v>
-      </c>
-      <c r="BN4">
-        <v>9.675713707839325E-18</v>
-      </c>
-      <c r="BO4">
-        <v>20514.57539869135</v>
-      </c>
-      <c r="BP4">
-        <v>35866.05777236753</v>
-      </c>
-      <c r="BQ4">
-        <v>3.53422470471663E-18</v>
-      </c>
-      <c r="BR4">
-        <v>5.970814679219366E-18</v>
-      </c>
-      <c r="BS4">
-        <v>31131.91629450906</v>
-      </c>
-      <c r="BT4">
-        <v>14041.83013463528</v>
-      </c>
-      <c r="BU4">
-        <v>2.157786896371609E-17</v>
-      </c>
-      <c r="BV4">
-        <v>2412.350872373144</v>
-      </c>
-      <c r="BW4">
-        <v>16917.64009774096</v>
-      </c>
-      <c r="BX4">
-        <v>3.339876916707675E-18</v>
-      </c>
-      <c r="BY4">
-        <v>5.957320618177988E-18</v>
-      </c>
-      <c r="BZ4">
-        <v>30490.24015768724</v>
-      </c>
-      <c r="CA4">
-        <v>12988.98893827307</v>
-      </c>
-      <c r="CB4">
-        <v>2.799769183918333E-18</v>
-      </c>
-      <c r="CC4">
-        <v>5.147026340376522E-18</v>
-      </c>
-      <c r="CD4">
-        <v>31936.08001450953</v>
-      </c>
-      <c r="CE4">
-        <v>24510.87984010166</v>
-      </c>
-      <c r="CF4">
-        <v>3.214656138781871E-18</v>
-      </c>
-      <c r="CG4">
-        <v>5.61686687573171E-18</v>
-      </c>
-      <c r="CH4">
-        <v>27629.93354039715</v>
-      </c>
-      <c r="CI4">
-        <v>24964.64937363354</v>
-      </c>
-      <c r="CJ4">
-        <v>3.361456001237185E-18</v>
-      </c>
-      <c r="CK4">
-        <v>5.768814391410241E-18</v>
-      </c>
-      <c r="CL4">
-        <v>31942.65810411767</v>
-      </c>
-      <c r="CM4">
-        <v>21160.88693897603</v>
-      </c>
-      <c r="CN4">
-        <v>4.85709573205697E-18</v>
-      </c>
-      <c r="CO4">
-        <v>2.65880253554763E-17</v>
-      </c>
-      <c r="CP4">
-        <v>26327.54402331933</v>
-      </c>
-      <c r="CQ4">
-        <v>18328.43724386789</v>
-      </c>
-      <c r="CR4">
-        <v>4.918101687249428E-18</v>
-      </c>
-      <c r="CS4">
-        <v>8.541803701882321E-18</v>
-      </c>
-      <c r="CT4">
-        <v>24781.20207044296</v>
-      </c>
-      <c r="CU4">
-        <v>14555.99549292205</v>
-      </c>
-      <c r="CV4">
-        <v>5.089662421214179E-18</v>
-      </c>
-      <c r="CW4">
-        <v>20647.99241803474</v>
-      </c>
-      <c r="CX4">
-        <v>13888.70470033983</v>
-      </c>
-      <c r="CY4">
-        <v>3.247075473127127E-18</v>
-      </c>
-      <c r="CZ4">
-        <v>5.754633721172881E-18</v>
-      </c>
-      <c r="DA4">
-        <v>28149.51786142039</v>
-      </c>
-      <c r="DB4">
-        <v>23717.62587279509</v>
-      </c>
-      <c r="DC4">
-        <v>2.941336987423635E-17</v>
-      </c>
-      <c r="DD4">
-        <v>7225.388757896526</v>
-      </c>
-      <c r="DE4">
-        <v>15327.63618845153</v>
-      </c>
-      <c r="DF4">
-        <v>4.601166064196082E-18</v>
-      </c>
-      <c r="DG4">
-        <v>26959.16005593405</v>
-      </c>
-      <c r="DH4">
-        <v>15753.20659789842</v>
+        <v>3580.999999999755</v>
       </c>
     </row>
   </sheetData>
@@ -2099,7 +1423,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DH4"/>
+  <dimension ref="A1:DH2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2445,1013 +1769,337 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4248982.157698166</v>
+        <v>362192.0708728698</v>
       </c>
       <c r="C2">
-        <v>8.432250283568586E-14</v>
+        <v>2.455055507656123E-11</v>
       </c>
       <c r="D2">
-        <v>6.534621667063688E-14</v>
+        <v>2.596971895707445E-11</v>
       </c>
       <c r="E2">
-        <v>785365.8194089755</v>
+        <v>78432.0913823554</v>
       </c>
       <c r="F2">
-        <v>4.151120150032802E-14</v>
+        <v>6.070421167084208E-12</v>
       </c>
       <c r="G2">
-        <v>7.461606984339544E-14</v>
+        <v>3.265021707005258E-11</v>
       </c>
       <c r="H2">
-        <v>5799701.523169744</v>
+        <v>484063.8283045924</v>
       </c>
       <c r="I2">
-        <v>2.813262383410285E-13</v>
+        <v>4.847809712010813E-11</v>
       </c>
       <c r="J2">
-        <v>4.243584511986219E-13</v>
+        <v>2.077954720127484E-11</v>
       </c>
       <c r="K2">
-        <v>2.758921558307402E-14</v>
+        <v>5.968675137412028E-12</v>
       </c>
       <c r="L2">
-        <v>2576603.698822471</v>
+        <v>232395.2803904462</v>
       </c>
       <c r="M2">
-        <v>2.587726486377932E-14</v>
+        <v>3.429052449465816E-12</v>
       </c>
       <c r="N2">
-        <v>3.20564610295623E-14</v>
+        <v>7.515566428226144E-12</v>
       </c>
       <c r="O2">
-        <v>8.864520934747102E-14</v>
+        <v>3.618462709322836E-11</v>
       </c>
       <c r="P2">
-        <v>3347594.503287788</v>
+        <v>321340.8943503622</v>
       </c>
       <c r="Q2">
-        <v>9.988584535716701E-14</v>
+        <v>1.603928971490912E-11</v>
       </c>
       <c r="R2">
-        <v>7.382325989729536E-14</v>
+        <v>2.900538029732974E-11</v>
       </c>
       <c r="S2">
-        <v>4122653.137363459</v>
+        <v>348959.1029395962</v>
       </c>
       <c r="T2">
-        <v>1.683110008677989E-13</v>
+        <v>7.392165080024937E-11</v>
       </c>
       <c r="U2">
-        <v>3.865328998339076E-14</v>
+        <v>1.24236249284148E-11</v>
       </c>
       <c r="V2">
-        <v>29113126.37741265</v>
+        <v>2277339.9236944</v>
       </c>
       <c r="W2">
-        <v>2.171741439645141E-13</v>
+        <v>9.499469816991009E-11</v>
       </c>
       <c r="X2">
-        <v>1.817336016085154E-13</v>
+        <v>5.617043102401132E-11</v>
       </c>
       <c r="Y2">
-        <v>2.435455863368185E-14</v>
+        <v>6.159556556942382E-12</v>
       </c>
       <c r="Z2">
-        <v>2287292.024276058</v>
+        <v>195545.2976704923</v>
       </c>
       <c r="AA2">
-        <v>1.977923851396914E-13</v>
+        <v>6.086222166596543E-11</v>
       </c>
       <c r="AB2">
-        <v>4.769168743387404E-13</v>
+        <v>1.110342728116145E-10</v>
       </c>
       <c r="AC2">
-        <v>2.734136266016929E-14</v>
+        <v>1.789540183537784E-11</v>
       </c>
       <c r="AD2">
-        <v>564238.8768836017</v>
+        <v>50038.20352393175</v>
       </c>
       <c r="AE2">
-        <v>1.84734890642746E-13</v>
+        <v>7.131896235330019E-11</v>
       </c>
       <c r="AF2">
-        <v>3.102394219527643E-13</v>
+        <v>1.23167414554195E-10</v>
       </c>
       <c r="AG2">
-        <v>9.575320240570531E-15</v>
+        <v>2.896983864055211E-12</v>
       </c>
       <c r="AH2">
-        <v>15368029.72625045</v>
+        <v>1226607.071496609</v>
       </c>
       <c r="AI2">
-        <v>6.826868896607757E-14</v>
+        <v>4.432036730213451E-12</v>
       </c>
       <c r="AJ2">
-        <v>9.025609152231224E-14</v>
+        <v>8.581563541298198E-12</v>
       </c>
       <c r="AK2">
-        <v>5.373664892573265E-14</v>
+        <v>1.345837681011426E-11</v>
       </c>
       <c r="AL2">
-        <v>5980948.581109114</v>
+        <v>559921.6951492574</v>
       </c>
       <c r="AM2">
-        <v>1.374699235926781E-13</v>
+        <v>2.30713294972817E-11</v>
       </c>
       <c r="AN2">
-        <v>1.330292223693027E-13</v>
+        <v>9.983325714045706E-12</v>
       </c>
       <c r="AO2">
-        <v>6.856061730403446E-15</v>
+        <v>2.56083846582502E-12</v>
       </c>
       <c r="AP2">
-        <v>35133078.66777886</v>
+        <v>3313560.419646064</v>
       </c>
       <c r="AQ2">
-        <v>2.102242463962344E-13</v>
+        <v>1.862415825657071E-11</v>
       </c>
       <c r="AR2">
-        <v>1.172845432478454E-12</v>
+        <v>1.354136024105613E-11</v>
       </c>
       <c r="AS2">
-        <v>3.222260456407508E-14</v>
+        <v>8.174419441664449E-12</v>
       </c>
       <c r="AT2">
-        <v>20583629.96613409</v>
+        <v>1785055</v>
       </c>
       <c r="AU2">
-        <v>1.562377431107647E-13</v>
+        <v>2.82306539314079E-11</v>
       </c>
       <c r="AV2">
-        <v>2.138773921313127E-13</v>
+        <v>2.055707218242723E-11</v>
       </c>
       <c r="AW2">
-        <v>2.539731533404669E-14</v>
+        <v>6.719825847445528E-12</v>
       </c>
       <c r="AX2">
-        <v>2965331.670228825</v>
+        <v>258599.240431282</v>
       </c>
       <c r="AY2">
-        <v>1.134305690717903E-13</v>
+        <v>3.822803659030176E-11</v>
       </c>
       <c r="AZ2">
-        <v>5.46367255854578E-14</v>
+        <v>1.544997290879524E-11</v>
       </c>
       <c r="BA2">
-        <v>1.039487059323948E-13</v>
+        <v>2.671275969930634E-11</v>
       </c>
       <c r="BB2">
-        <v>1099185.137682407</v>
+        <v>104062.3240427867</v>
       </c>
       <c r="BC2">
-        <v>7.544100459196834E-14</v>
+        <v>1.322062169490614E-11</v>
       </c>
       <c r="BD2">
-        <v>8.141555504022301E-14</v>
+        <v>1.515368227581196E-11</v>
       </c>
       <c r="BE2">
-        <v>6.983519328336882E-14</v>
+        <v>2.277782183209694E-11</v>
       </c>
       <c r="BF2">
-        <v>2376692.69931147</v>
+        <v>205544.5935806154</v>
       </c>
       <c r="BG2">
-        <v>8.549672806766277E-14</v>
+        <v>1.125934839504451E-11</v>
       </c>
       <c r="BH2">
-        <v>5.008891324378748E-14</v>
+        <v>1.762874593516854E-11</v>
       </c>
       <c r="BI2">
-        <v>1681219.41909658</v>
+        <v>146053.0000000003</v>
       </c>
       <c r="BJ2">
-        <v>1.581345160782454E-13</v>
+        <v>2.465293832573213E-11</v>
       </c>
       <c r="BK2">
-        <v>2.427938043460953E-13</v>
+        <v>1.527124393754225E-11</v>
       </c>
       <c r="BL2">
-        <v>4.771163878513725E-14</v>
+        <v>1.00479902462869E-11</v>
       </c>
       <c r="BM2">
-        <v>18302592.38312829</v>
+        <v>1374144.177230114</v>
       </c>
       <c r="BN2">
-        <v>4.882596176212751E-14</v>
+        <v>1.200687110782194E-11</v>
       </c>
       <c r="BO2">
-        <v>5.213204651929282E-14</v>
+        <v>8.946644020115869E-12</v>
       </c>
       <c r="BP2">
-        <v>7.310515726456853E-14</v>
+        <v>1.935979505138439E-11</v>
       </c>
       <c r="BQ2">
-        <v>655579.6428904795</v>
+        <v>56385.15779109476</v>
       </c>
       <c r="BR2">
-        <v>2.194400255235826E-13</v>
+        <v>7.551068869925734E-11</v>
       </c>
       <c r="BS2">
-        <v>2.963963966846802E-13</v>
+        <v>1.343280612540787E-10</v>
       </c>
       <c r="BT2">
-        <v>1.455359909132895E-14</v>
+        <v>4.27550963629009E-12</v>
       </c>
       <c r="BU2">
-        <v>406520.8252897988</v>
+        <v>24475.50050857032</v>
       </c>
       <c r="BV2">
-        <v>3.033773517778075E-13</v>
+        <v>8.541290658472489E-12</v>
       </c>
       <c r="BW2">
-        <v>2.319406287479054E-14</v>
+        <v>9.511008510823799E-12</v>
       </c>
       <c r="BX2">
-        <v>449390.9100988071</v>
+        <v>37872.56904668458</v>
       </c>
       <c r="BY2">
-        <v>2.176838900384984E-13</v>
+        <v>8.748554633314826E-11</v>
       </c>
       <c r="BZ2">
-        <v>3.960130024461539E-13</v>
+        <v>1.060052445317869E-10</v>
       </c>
       <c r="CA2">
-        <v>1.421418927478765E-14</v>
+        <v>3.009142594209042E-12</v>
       </c>
       <c r="CB2">
-        <v>6736466.105118558</v>
+        <v>572255.0000000001</v>
       </c>
       <c r="CC2">
-        <v>2.091247960447106E-13</v>
+        <v>6.197445472400973E-11</v>
       </c>
       <c r="CD2">
-        <v>4.275030421402093E-13</v>
+        <v>7.551865882265004E-11</v>
       </c>
       <c r="CE2">
-        <v>2.327828347234293E-14</v>
+        <v>7.449829878082738E-12</v>
       </c>
       <c r="CF2">
-        <v>9179234.843971122</v>
+        <v>852363.7578879765</v>
       </c>
       <c r="CG2">
-        <v>1.727865167652614E-13</v>
+        <v>7.754636669082639E-11</v>
       </c>
       <c r="CH2">
-        <v>1.415971238114952E-13</v>
+        <v>4.367958279364017E-11</v>
       </c>
       <c r="CI2">
-        <v>9.360137323994192E-15</v>
+        <v>2.164666462063046E-12</v>
       </c>
       <c r="CJ2">
-        <v>8784973.589162782</v>
+        <v>717634.9490973863</v>
       </c>
       <c r="CK2">
-        <v>2.109155151090601E-13</v>
+        <v>8.883951444902304E-11</v>
       </c>
       <c r="CL2">
-        <v>1.332135179565753E-13</v>
+        <v>9.848457031217517E-11</v>
       </c>
       <c r="CM2">
-        <v>1.690838933298174E-14</v>
+        <v>4.030757148010177E-12</v>
       </c>
       <c r="CN2">
-        <v>3227001.392885292</v>
+        <v>261179.0012740321</v>
       </c>
       <c r="CO2">
-        <v>5.09405216471161E-14</v>
+        <v>3.301881124989177E-12</v>
       </c>
       <c r="CP2">
-        <v>1.06574646334692E-13</v>
+        <v>1.057346148943319E-12</v>
       </c>
       <c r="CQ2">
-        <v>6.8996079884362E-14</v>
+        <v>1.58697172526925E-11</v>
       </c>
       <c r="CR2">
-        <v>3397897.439829935</v>
+        <v>291614.5324122901</v>
       </c>
       <c r="CS2">
-        <v>8.314194830596816E-14</v>
+        <v>3.862920996867408E-11</v>
       </c>
       <c r="CT2">
-        <v>4.555588750621809E-14</v>
+        <v>8.386158822163043E-12</v>
       </c>
       <c r="CU2">
-        <v>5.350831397547309E-14</v>
+        <v>1.991631040602639E-11</v>
       </c>
       <c r="CV2">
-        <v>2849076.568831435</v>
+        <v>289709.2412730567</v>
       </c>
       <c r="CW2">
-        <v>4.267378479699268E-14</v>
+        <v>3.365488548712987E-12</v>
       </c>
       <c r="CX2">
-        <v>6.486244877062696E-14</v>
+        <v>2.587800414405022E-11</v>
       </c>
       <c r="CY2">
-        <v>10044361.83303957</v>
+        <v>931464.101326811</v>
       </c>
       <c r="CZ2">
-        <v>1.493347059589161E-13</v>
+        <v>4.396148155878376E-11</v>
       </c>
       <c r="DA2">
-        <v>1.249054379215249E-13</v>
+        <v>4.675934373544364E-11</v>
       </c>
       <c r="DB2">
-        <v>1.656053285290891E-14</v>
+        <v>6.611836514215192E-12</v>
       </c>
       <c r="DC2">
-        <v>740572.1503676601</v>
+        <v>58889.53049906724</v>
       </c>
       <c r="DD2">
-        <v>3.797735765675309E-14</v>
+        <v>6.003048439032036E-12</v>
       </c>
       <c r="DE2">
-        <v>5.845928828912862E-14</v>
+        <v>1.693899524786793E-11</v>
       </c>
       <c r="DF2">
-        <v>1768087.32947156</v>
+        <v>159327.4441772603</v>
       </c>
       <c r="DG2">
-        <v>6.790101928497823E-14</v>
+        <v>1.870424616532993E-11</v>
       </c>
       <c r="DH2">
-        <v>3.687825977340364E-14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:112">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>5212659.49636046</v>
-      </c>
-      <c r="C3">
-        <v>518268.0395077414</v>
-      </c>
-      <c r="D3">
-        <v>1.449156261475061E-17</v>
-      </c>
-      <c r="E3">
-        <v>3030863.720437294</v>
-      </c>
-      <c r="F3">
-        <v>352840.8667071347</v>
-      </c>
-      <c r="G3">
-        <v>1.672137242507424E-17</v>
-      </c>
-      <c r="H3">
-        <v>6361416.195502138</v>
-      </c>
-      <c r="I3">
-        <v>737890.6436697469</v>
-      </c>
-      <c r="J3">
-        <v>1421356.624631245</v>
-      </c>
-      <c r="K3">
-        <v>7.874501588386225E-18</v>
-      </c>
-      <c r="L3">
-        <v>3802995.319563169</v>
-      </c>
-      <c r="M3">
-        <v>66791.13048535571</v>
-      </c>
-      <c r="N3">
-        <v>330406.4063865722</v>
-      </c>
-      <c r="O3">
-        <v>1.817594320735613E-17</v>
-      </c>
-      <c r="P3">
-        <v>6249753.307608976</v>
-      </c>
-      <c r="Q3">
-        <v>637853.8402089466</v>
-      </c>
-      <c r="R3">
-        <v>1.513024928320074E-17</v>
-      </c>
-      <c r="S3">
-        <v>5400698.106283399</v>
-      </c>
-      <c r="T3">
-        <v>896893.6387477351</v>
-      </c>
-      <c r="U3">
-        <v>1.002173971431697E-17</v>
-      </c>
-      <c r="V3">
-        <v>20273078.0993116</v>
-      </c>
-      <c r="W3">
-        <v>1030229.564484922</v>
-      </c>
-      <c r="X3">
-        <v>1064343.710658836</v>
-      </c>
-      <c r="Y3">
-        <v>8.027711095577552E-18</v>
-      </c>
-      <c r="Z3">
-        <v>4225306.297724482</v>
-      </c>
-      <c r="AA3">
-        <v>900583.5517422557</v>
-      </c>
-      <c r="AB3">
-        <v>1278398.726053791</v>
-      </c>
-      <c r="AC3">
-        <v>7.773127076203797E-18</v>
-      </c>
-      <c r="AD3">
-        <v>2395589.439857913</v>
-      </c>
-      <c r="AE3">
-        <v>838452.6178686557</v>
-      </c>
-      <c r="AF3">
-        <v>1039738.646382672</v>
-      </c>
-      <c r="AG3">
-        <v>3.53932108403439E-18</v>
-      </c>
-      <c r="AH3">
-        <v>14901594.58057989</v>
-      </c>
-      <c r="AI3">
-        <v>433783.3119871771</v>
-      </c>
-      <c r="AJ3">
-        <v>695053.6620439531</v>
-      </c>
-      <c r="AK3">
-        <v>1.680686574366524E-17</v>
-      </c>
-      <c r="AL3">
-        <v>4177160.767876796</v>
-      </c>
-      <c r="AM3">
-        <v>771734.2866769212</v>
-      </c>
-      <c r="AN3">
-        <v>938757.6696268098</v>
-      </c>
-      <c r="AO3">
-        <v>2.691071215835689E-18</v>
-      </c>
-      <c r="AP3">
-        <v>31400609.09097295</v>
-      </c>
-      <c r="AQ3">
-        <v>975020.8886878302</v>
-      </c>
-      <c r="AR3">
-        <v>1117529.597748999</v>
-      </c>
-      <c r="AS3">
-        <v>1.208036132834806E-17</v>
-      </c>
-      <c r="AT3">
-        <v>17034967.05437366</v>
-      </c>
-      <c r="AU3">
-        <v>911282.4719201504</v>
-      </c>
-      <c r="AV3">
-        <v>1242078.825946633</v>
-      </c>
-      <c r="AW3">
-        <v>7.412482266926807E-18</v>
-      </c>
-      <c r="AX3">
-        <v>4111787.147590961</v>
-      </c>
-      <c r="AY3">
-        <v>636718.6703155021</v>
-      </c>
-      <c r="AZ3">
-        <v>403266.6194225267</v>
-      </c>
-      <c r="BA3">
-        <v>2.041186908047204E-17</v>
-      </c>
-      <c r="BB3">
-        <v>3201180.902248138</v>
-      </c>
-      <c r="BC3">
-        <v>554183.6917608766</v>
-      </c>
-      <c r="BD3">
-        <v>606398.3545629346</v>
-      </c>
-      <c r="BE3">
-        <v>1.474520492380429E-17</v>
-      </c>
-      <c r="BF3">
-        <v>3790662.123384692</v>
-      </c>
-      <c r="BG3">
-        <v>524764.3368893299</v>
-      </c>
-      <c r="BH3">
-        <v>1.234211730027333E-17</v>
-      </c>
-      <c r="BI3">
-        <v>3959120.934524682</v>
-      </c>
-      <c r="BJ3">
-        <v>758397.9522856113</v>
-      </c>
-      <c r="BK3">
-        <v>1118129.784111998</v>
-      </c>
-      <c r="BL3">
-        <v>1.13961754643416E-17</v>
-      </c>
-      <c r="BM3">
-        <v>15715253.60053389</v>
-      </c>
-      <c r="BN3">
-        <v>368507.1481503947</v>
-      </c>
-      <c r="BO3">
-        <v>337680.6700067621</v>
-      </c>
-      <c r="BP3">
-        <v>1.68721413077563E-17</v>
-      </c>
-      <c r="BQ3">
-        <v>2726968.952895534</v>
-      </c>
-      <c r="BR3">
-        <v>691657.2794610313</v>
-      </c>
-      <c r="BS3">
-        <v>953585.7793690453</v>
-      </c>
-      <c r="BT3">
-        <v>4.886788117139177E-18</v>
-      </c>
-      <c r="BU3">
-        <v>4074292.44775114</v>
-      </c>
-      <c r="BV3">
-        <v>400493.065494011</v>
-      </c>
-      <c r="BW3">
-        <v>3.149004841799837E-17</v>
-      </c>
-      <c r="BX3">
-        <v>2267452.565293234</v>
-      </c>
-      <c r="BY3">
-        <v>798443.1654410636</v>
-      </c>
-      <c r="BZ3">
-        <v>966962.2766683496</v>
-      </c>
-      <c r="CA3">
-        <v>4.572195334123588E-18</v>
-      </c>
-      <c r="CB3">
-        <v>6917236.985089206</v>
-      </c>
-      <c r="CC3">
-        <v>1009901.28100987</v>
-      </c>
-      <c r="CD3">
-        <v>1393173.724367325</v>
-      </c>
-      <c r="CE3">
-        <v>6.933449839934193E-18</v>
-      </c>
-      <c r="CF3">
-        <v>8031349.647880755</v>
-      </c>
-      <c r="CG3">
-        <v>857258.2387941702</v>
-      </c>
-      <c r="CH3">
-        <v>884779.4450862034</v>
-      </c>
-      <c r="CI3">
-        <v>2.979475145533282E-18</v>
-      </c>
-      <c r="CJ3">
-        <v>6214060.51649053</v>
-      </c>
-      <c r="CK3">
-        <v>937831.7730237413</v>
-      </c>
-      <c r="CL3">
-        <v>850754.5435431029</v>
-      </c>
-      <c r="CM3">
-        <v>5.713361948921692E-18</v>
-      </c>
-      <c r="CN3">
-        <v>5015230.682131453</v>
-      </c>
-      <c r="CO3">
-        <v>191071.2492825414</v>
-      </c>
-      <c r="CP3">
-        <v>744127.6520401309</v>
-      </c>
-      <c r="CQ3">
-        <v>1.514365008675188E-17</v>
-      </c>
-      <c r="CR3">
-        <v>3837743.720775206</v>
-      </c>
-      <c r="CS3">
-        <v>602321.2849771468</v>
-      </c>
-      <c r="CT3">
-        <v>333931.2430934255</v>
-      </c>
-      <c r="CU3">
-        <v>1.487381741900205E-17</v>
-      </c>
-      <c r="CV3">
-        <v>3583910.788669766</v>
-      </c>
-      <c r="CW3">
-        <v>315763.7014785424</v>
-      </c>
-      <c r="CX3">
-        <v>1.455756345020551E-17</v>
-      </c>
-      <c r="CY3">
-        <v>7287039.255724013</v>
-      </c>
-      <c r="CZ3">
-        <v>805369.6498118452</v>
-      </c>
-      <c r="DA3">
-        <v>914323.2484885864</v>
-      </c>
-      <c r="DB3">
-        <v>4.758812305487427E-18</v>
-      </c>
-      <c r="DC3">
-        <v>3843506.053979577</v>
-      </c>
-      <c r="DD3">
-        <v>145113.2850679377</v>
-      </c>
-      <c r="DE3">
-        <v>2.62395925489875E-17</v>
-      </c>
-      <c r="DF3">
-        <v>4022386.20602923</v>
-      </c>
-      <c r="DG3">
-        <v>508696.6520011722</v>
-      </c>
-      <c r="DH3">
-        <v>1.00869536319747E-17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:112">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>6730297.447947027</v>
-      </c>
-      <c r="C4">
-        <v>1.329521146132647E-16</v>
-      </c>
-      <c r="D4">
-        <v>506658.5085367229</v>
-      </c>
-      <c r="E4">
-        <v>4170552.434954945</v>
-      </c>
-      <c r="F4">
-        <v>9.353344248634016E-17</v>
-      </c>
-      <c r="G4">
-        <v>480297.2316319337</v>
-      </c>
-      <c r="H4">
-        <v>9303174.077341001</v>
-      </c>
-      <c r="I4">
-        <v>1.127573477190959E-15</v>
-      </c>
-      <c r="J4">
-        <v>3.227527012287194E-16</v>
-      </c>
-      <c r="K4">
-        <v>315439.3914278322</v>
-      </c>
-      <c r="L4">
-        <v>4748469.987323429</v>
-      </c>
-      <c r="M4">
-        <v>8.769427851493043E-16</v>
-      </c>
-      <c r="N4">
-        <v>7.79733533585351E-17</v>
-      </c>
-      <c r="O4">
-        <v>522961.9949027511</v>
-      </c>
-      <c r="P4">
-        <v>8353558.811504672</v>
-      </c>
-      <c r="Q4">
-        <v>1.533508825624761E-16</v>
-      </c>
-      <c r="R4">
-        <v>507605.5320339276</v>
-      </c>
-      <c r="S4">
-        <v>7115368.829861264</v>
-      </c>
-      <c r="T4">
-        <v>2.176139924792955E-16</v>
-      </c>
-      <c r="U4">
-        <v>353917.463749478</v>
-      </c>
-      <c r="V4">
-        <v>18672912.44374287</v>
-      </c>
-      <c r="W4">
-        <v>8.409650373802248E-16</v>
-      </c>
-      <c r="X4">
-        <v>2.417976430718573E-16</v>
-      </c>
-      <c r="Y4">
-        <v>316755.0453883167</v>
-      </c>
-      <c r="Z4">
-        <v>6828614.002009931</v>
-      </c>
-      <c r="AA4">
-        <v>8.918154743848068E-16</v>
-      </c>
-      <c r="AB4">
-        <v>3.590011799189336E-16</v>
-      </c>
-      <c r="AC4">
-        <v>304993.1534393572</v>
-      </c>
-      <c r="AD4">
-        <v>4407233.904453246</v>
-      </c>
-      <c r="AE4">
-        <v>1.01205101362943E-15</v>
-      </c>
-      <c r="AF4">
-        <v>3.880625495542318E-16</v>
-      </c>
-      <c r="AG4">
-        <v>83590.2308290448</v>
-      </c>
-      <c r="AH4">
-        <v>15842627.96504578</v>
-      </c>
-      <c r="AI4">
-        <v>4.469743212573953E-16</v>
-      </c>
-      <c r="AJ4">
-        <v>1.638322703588919E-16</v>
-      </c>
-      <c r="AK4">
-        <v>638509.6143422913</v>
-      </c>
-      <c r="AL4">
-        <v>6859396.254532895</v>
-      </c>
-      <c r="AM4">
-        <v>7.786925431642414E-16</v>
-      </c>
-      <c r="AN4">
-        <v>2.609766855885342E-16</v>
-      </c>
-      <c r="AO4">
-        <v>115000.2135673441</v>
-      </c>
-      <c r="AP4">
-        <v>31076483.83946381</v>
-      </c>
-      <c r="AQ4">
-        <v>7.72279751984164E-16</v>
-      </c>
-      <c r="AR4">
-        <v>2.33508146902335E-16</v>
-      </c>
-      <c r="AS4">
-        <v>497901.1614661084</v>
-      </c>
-      <c r="AT4">
-        <v>18625196.90324159</v>
-      </c>
-      <c r="AU4">
-        <v>7.87671986357675E-16</v>
-      </c>
-      <c r="AV4">
-        <v>2.848115724841351E-16</v>
-      </c>
-      <c r="AW4">
-        <v>315699.2167463097</v>
-      </c>
-      <c r="AX4">
-        <v>5422021.660646083</v>
-      </c>
-      <c r="AY4">
-        <v>6.282860151050959E-16</v>
-      </c>
-      <c r="AZ4">
-        <v>1.066057548752236E-16</v>
-      </c>
-      <c r="BA4">
-        <v>627001.4310827861</v>
-      </c>
-      <c r="BB4">
-        <v>4577587.926889303</v>
-      </c>
-      <c r="BC4">
-        <v>5.751220238650029E-16</v>
-      </c>
-      <c r="BD4">
-        <v>1.555589240574868E-16</v>
-      </c>
-      <c r="BE4">
-        <v>431716.7396002876</v>
-      </c>
-      <c r="BF4">
-        <v>5098704.304209243</v>
-      </c>
-      <c r="BG4">
-        <v>1.372563413341087E-16</v>
-      </c>
-      <c r="BH4">
-        <v>373034.3927149</v>
-      </c>
-      <c r="BI4">
-        <v>6604458.24437721</v>
-      </c>
-      <c r="BJ4">
-        <v>8.028205672902479E-16</v>
-      </c>
-      <c r="BK4">
-        <v>3.353743889085461E-16</v>
-      </c>
-      <c r="BL4">
-        <v>415765.6453594086</v>
-      </c>
-      <c r="BM4">
-        <v>15256949.66142633</v>
-      </c>
-      <c r="BN4">
-        <v>3.744167780806907E-16</v>
-      </c>
-      <c r="BO4">
-        <v>9.110871189258409E-17</v>
-      </c>
-      <c r="BP4">
-        <v>625990.9538181601</v>
-      </c>
-      <c r="BQ4">
-        <v>4750158.434217818</v>
-      </c>
-      <c r="BR4">
-        <v>9.589873412405186E-16</v>
-      </c>
-      <c r="BS4">
-        <v>3.149010328855086E-16</v>
-      </c>
-      <c r="BT4">
-        <v>185083.769811197</v>
-      </c>
-      <c r="BU4">
-        <v>6141414.973423326</v>
-      </c>
-      <c r="BV4">
-        <v>2.172015913896416E-15</v>
-      </c>
-      <c r="BW4">
-        <v>25076.55032179658</v>
-      </c>
-      <c r="BX4">
-        <v>4228847.703564048</v>
-      </c>
-      <c r="BY4">
-        <v>9.718470822296291E-16</v>
-      </c>
-      <c r="BZ4">
-        <v>3.593559919096497E-16</v>
-      </c>
-      <c r="CA4">
-        <v>169312.5358826716</v>
-      </c>
-      <c r="CB4">
-        <v>9812776.917243958</v>
-      </c>
-      <c r="CC4">
-        <v>8.851600849508597E-16</v>
-      </c>
-      <c r="CD4">
-        <v>3.234553035150035E-16</v>
-      </c>
-      <c r="CE4">
-        <v>287795.9530578905</v>
-      </c>
-      <c r="CF4">
-        <v>10152294.47805857</v>
-      </c>
-      <c r="CG4">
-        <v>7.565774705644617E-16</v>
-      </c>
-      <c r="CH4">
-        <v>2.173970988234569E-16</v>
-      </c>
-      <c r="CI4">
-        <v>126753.7878587262</v>
-      </c>
-      <c r="CJ4">
-        <v>8222984.824652965</v>
-      </c>
-      <c r="CK4">
-        <v>8.299889970368455E-16</v>
-      </c>
-      <c r="CL4">
-        <v>2.223510272257273E-16</v>
-      </c>
-      <c r="CM4">
-        <v>215046.0077878119</v>
-      </c>
-      <c r="CN4">
-        <v>6794718.290667358</v>
-      </c>
-      <c r="CO4">
-        <v>1.191956706406721E-15</v>
-      </c>
-      <c r="CP4">
-        <v>1.824879473849999E-16</v>
-      </c>
-      <c r="CQ4">
-        <v>510839.567258507</v>
-      </c>
-      <c r="CR4">
-        <v>4967064.611761875</v>
-      </c>
-      <c r="CS4">
-        <v>6.21011059107202E-16</v>
-      </c>
-      <c r="CT4">
-        <v>8.694952508294392E-17</v>
-      </c>
-      <c r="CU4">
-        <v>448289.0146705938</v>
-      </c>
-      <c r="CV4">
-        <v>4640522.60523486</v>
-      </c>
-      <c r="CW4">
-        <v>8.499971593473146E-17</v>
-      </c>
-      <c r="CX4">
-        <v>433725.1090626697</v>
-      </c>
-      <c r="CY4">
-        <v>9540077.895602426</v>
-      </c>
-      <c r="CZ4">
-        <v>7.438727540747626E-16</v>
-      </c>
-      <c r="DA4">
-        <v>2.307524426652404E-16</v>
-      </c>
-      <c r="DB4">
-        <v>197504.2216635142</v>
-      </c>
-      <c r="DC4">
-        <v>5345387.48096133</v>
-      </c>
-      <c r="DD4">
-        <v>5.355941321355505E-16</v>
-      </c>
-      <c r="DE4">
-        <v>147944.4420925198</v>
-      </c>
-      <c r="DF4">
-        <v>5564457.818068884</v>
-      </c>
-      <c r="DG4">
-        <v>1.264371866357436E-16</v>
-      </c>
-      <c r="DH4">
-        <v>327238.3909721645</v>
+        <v>1.969275963998167E-11</v>
       </c>
     </row>
   </sheetData>
@@ -3461,7 +2109,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3492,68 +2140,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>512032</v>
+        <v>424398.9999999992</v>
       </c>
       <c r="C2">
-        <v>7.790890614178312E-14</v>
+        <v>2.517440439745168E-10</v>
       </c>
       <c r="D2">
-        <v>1.072572198356474E-13</v>
+        <v>2.829512788326873E-10</v>
       </c>
       <c r="E2">
-        <v>7334.500000000019</v>
+        <v>895.0000000002494</v>
       </c>
       <c r="F2">
-        <v>5.421910921783744E-14</v>
+        <v>2.85973930923052E-10</v>
       </c>
       <c r="G2">
-        <v>1.114286240659645E-13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>559043.1954944748</v>
-      </c>
-      <c r="C3">
-        <v>2.543867852099308E-17</v>
-      </c>
-      <c r="D3">
-        <v>519116.6541334033</v>
-      </c>
-      <c r="E3">
-        <v>354952.7036095476</v>
-      </c>
-      <c r="F3">
-        <v>200859.1109050374</v>
-      </c>
-      <c r="G3">
-        <v>262329.1585523719</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>663668.9551987362</v>
-      </c>
-      <c r="C4">
-        <v>715777.1171416835</v>
-      </c>
-      <c r="D4">
-        <v>3.382839326866589E-16</v>
-      </c>
-      <c r="E4">
-        <v>470454.1466323023</v>
-      </c>
-      <c r="F4">
-        <v>288130.8309028421</v>
-      </c>
-      <c r="G4">
-        <v>383642.297644785</v>
+        <v>6.052002041778002E-10</v>
       </c>
     </row>
   </sheetData>
@@ -3563,7 +2165,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3588,50 +2190,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>35437280191.88926</v>
+        <v>20211486752.30219</v>
       </c>
       <c r="C2">
-        <v>89061675.1367442</v>
+        <v>7652137.395348839</v>
       </c>
       <c r="D2">
-        <v>0.05031278356464697</v>
+        <v>0.09452270104757321</v>
       </c>
       <c r="E2">
-        <v>0.9982477307941209</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>185006480313.4304</v>
-      </c>
-      <c r="C3">
-        <v>92757980.49812478</v>
-      </c>
-      <c r="D3">
-        <v>0.2382057917195888</v>
-      </c>
-      <c r="E3">
-        <v>0.9758843278043972</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>187595918735.015</v>
-      </c>
-      <c r="C4">
-        <v>113127273.7625826</v>
-      </c>
-      <c r="D4">
-        <v>0.3053894331637079</v>
-      </c>
-      <c r="E4">
-        <v>0.9749665461312612</v>
+        <v>0.9995459221581159</v>
       </c>
     </row>
   </sheetData>
